--- a/Portal/DTRAttachments/APW_Portal_DTR_Template.xlsx
+++ b/Portal/DTRAttachments/APW_Portal_DTR_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APW System\APWPortal-Web-UI\Portal\DTRAttachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APW SYSTEM\SOURCE CODE\APWPortal-WEB-UI\Portal\DTRAttachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D4E688-58CA-46CF-86E9-E98A72AD2849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CDB65-F017-4361-96D2-0945CB80D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{9B05BE3E-14BF-4A5C-9E8B-1FD05285744B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B05BE3E-14BF-4A5C-9E8B-1FD05285744B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1062,17 +1062,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1153,181 +1145,187 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1745,747 +1743,747 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353F32-1002-4D2F-BB6F-03EB1B5E313E}">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="37" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="37" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="37" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="37" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="37" customWidth="1"/>
-    <col min="12" max="16384" width="11.7109375" style="37"/>
+    <col min="1" max="1" width="17.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="33" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="33" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="11.7109375" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="36" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41"/>
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:11" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="35"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="96"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="39"/>
+      <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="104"/>
     </row>
     <row r="5" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="51"/>
+      <c r="H5" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="58" t="s">
+      <c r="I5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="58"/>
     </row>
     <row r="6" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="102"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="62" t="s">
+      <c r="G6" s="68"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="63"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="21"/>
+      <c r="J7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="65"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
       <c r="H8" s="7"/>
       <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="65"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
       <c r="H9" s="7"/>
       <c r="I9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="21"/>
+      <c r="J9" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="6"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="65"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="7"/>
       <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="21"/>
+      <c r="J10" s="17"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="7"/>
       <c r="I11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="21"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="65"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="7"/>
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="21"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="65"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
       <c r="H13" s="7"/>
       <c r="I13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="21"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="65"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="7"/>
       <c r="I14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="65"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="7"/>
       <c r="I15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="21"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="65"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62"/>
       <c r="H16" s="7"/>
       <c r="I16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="65"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
       <c r="H17" s="7"/>
       <c r="I17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="21"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="65"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="7"/>
       <c r="I18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="65"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="62"/>
       <c r="H19" s="7"/>
       <c r="I19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="65"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="7"/>
       <c r="I20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="65"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="7"/>
       <c r="I21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="65"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
       <c r="H22" s="7"/>
       <c r="I22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="111"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="7"/>
       <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="74"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="74" t="s">
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="76" t="s">
+      <c r="G25" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="78"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="84"/>
     </row>
     <row r="26" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="75" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="87"/>
     </row>
     <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="91"/>
     </row>
     <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="91"/>
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="91"/>
     </row>
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="91"/>
     </row>
     <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="91"/>
     </row>
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="91"/>
     </row>
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="91"/>
     </row>
     <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="82"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="85"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="91"/>
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="82"/>
-      <c r="D35" s="82"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="85"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="90"/>
+      <c r="J35" s="91"/>
     </row>
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="82"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="85"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="91"/>
     </row>
     <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="82"/>
-      <c r="D37" s="82"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="85"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="85"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="91"/>
     </row>
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="82"/>
-      <c r="D39" s="82"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="85"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="91"/>
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="23"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="82"/>
-      <c r="D40" s="82"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="85"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="91"/>
     </row>
     <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="85"/>
+      <c r="A41" s="20"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="91"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="26"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
-      <c r="J43" s="18"/>
+      <c r="A43" s="23"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="87"/>
-      <c r="F44" s="37" t="s">
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="F44" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="88"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="94"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
-      <c r="B45" s="89" t="s">
+      <c r="A45" s="23"/>
+      <c r="B45" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="89"/>
-      <c r="G45" s="89" t="s">
+      <c r="C45" s="95"/>
+      <c r="G45" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="90"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="96"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="18"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="F47" s="37" t="s">
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="F47" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="88"/>
+      <c r="G47" s="93"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="94"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
-      <c r="B48" s="89" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="89"/>
-      <c r="G48" s="89" t="s">
+      <c r="C48" s="95"/>
+      <c r="G48" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="90"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="95"/>
+      <c r="J48" s="96"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="99" t="s">
+      <c r="A49" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99"/>
-      <c r="E49" s="99"/>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="99"/>
-      <c r="I49" s="99"/>
-      <c r="J49" s="99"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
+      <c r="J49" s="105"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="31"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="27"/>
     </row>
     <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="31"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="34"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="113"/>
     </row>
     <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="113"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="113"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -2503,7 +2501,6 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C22:E22"/>
@@ -2528,13 +2525,13 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="G37:J37"/>
     <mergeCell ref="C38:D38"/>
-    <mergeCell ref="A53:B56"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="G47:J47"/>
+    <mergeCell ref="A53:A55"/>
     <mergeCell ref="G38:J38"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="G33:J33"/>
@@ -2561,17 +2558,22 @@
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="G25:J26"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -2579,14 +2581,10 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="76" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Portal/DTRAttachments/APW_Portal_DTR_Template.xlsx
+++ b/Portal/DTRAttachments/APW_Portal_DTR_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\APW SYSTEM\SOURCE CODE\APWPortal-WEB-UI\Portal\DTRAttachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238CDB65-F017-4361-96D2-0945CB80D459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90553F58-5203-4785-BF8B-A73B6787CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9B05BE3E-14BF-4A5C-9E8B-1FD05285744B}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$J$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$55</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -303,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -718,21 +718,6 @@
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,17 +1029,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,37 +1051,74 @@
     <xf numFmtId="15" fontId="8" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1157,12 +1173,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1172,160 +1194,139 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1350,15 +1351,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>105348</xdr:colOff>
+      <xdr:colOff>60524</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1089716</xdr:colOff>
+      <xdr:colOff>1165412</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>156883</xdr:rowOff>
+      <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,8 +1389,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="105348" y="89647"/>
-          <a:ext cx="984368" cy="862854"/>
+          <a:off x="60524" y="145677"/>
+          <a:ext cx="1104888" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,754 +1742,904 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D353F32-1002-4D2F-BB6F-03EB1B5E313E}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A39" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A55"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="33" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="33" customWidth="1"/>
-    <col min="9" max="9" width="7.85546875" style="33" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="33" customWidth="1"/>
-    <col min="12" max="16384" width="11.7109375" style="33"/>
+    <col min="1" max="1" width="17.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="30" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="30" customWidth="1"/>
+    <col min="10" max="11" width="3.85546875" style="30" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="3" style="30" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="30" customWidth="1"/>
+    <col min="15" max="16384" width="11.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37"/>
-      <c r="B1" s="97" t="s">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="34"/>
+      <c r="B1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="13" t="s">
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="28"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35"/>
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35"/>
+      <c r="B3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="102"/>
-    </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="15" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:14" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="45"/>
+    </row>
+    <row r="5" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50" t="s">
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="52" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="74"/>
+    </row>
+    <row r="6" spans="1:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="61"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="53" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="59" t="s">
+      <c r="G6" s="85"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="60"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="77"/>
+    </row>
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="5" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="47"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="17"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="5" t="s">
+      <c r="J8" s="52"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="47"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="17"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="5" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="17"/>
-    </row>
-    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="5" t="s">
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+    </row>
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="5" t="s">
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="17"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="5" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="5" t="s">
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="17"/>
-    </row>
-    <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="5" t="s">
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="17"/>
-    </row>
-    <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="17"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8" t="s">
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="47"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="17"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5" t="s">
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="47"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="17"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8" t="s">
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="17"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5" t="s">
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="47"/>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="17"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5" t="s">
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="47"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="17"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8" t="s">
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="17"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5" t="s">
+      <c r="J22" s="49"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="47"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="17"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="72" t="s">
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="47"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="74"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="75" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="91"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="77" t="s">
+      <c r="B25" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="80" t="s">
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="82" t="s">
+      <c r="G25" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="84"/>
-    </row>
-    <row r="26" spans="1:10" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="81" t="s">
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="101"/>
+    </row>
+    <row r="26" spans="1:13" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="93"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="98"/>
+      <c r="E26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="81"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="87"/>
-    </row>
-    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="90"/>
-      <c r="J27" s="91"/>
-    </row>
-    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="90"/>
-      <c r="J28" s="91"/>
-    </row>
-    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="91"/>
-    </row>
-    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="91"/>
-    </row>
-    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="91"/>
-    </row>
-    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="91"/>
-    </row>
-    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="91"/>
-    </row>
-    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="91"/>
-    </row>
-    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="90"/>
-      <c r="J35" s="91"/>
-    </row>
-    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="91"/>
-    </row>
-    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="90"/>
-      <c r="J37" s="91"/>
-    </row>
-    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
-      <c r="J38" s="91"/>
-    </row>
-    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="20"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="91"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="21" t="s">
+      <c r="F26" s="98"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+    </row>
+    <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="108"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="108"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="108"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="108"/>
+    </row>
+    <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="108"/>
+    </row>
+    <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="108"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="108"/>
+    </row>
+    <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="108"/>
+    </row>
+    <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="108"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="107"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="108"/>
+    </row>
+    <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="105"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="108"/>
+    </row>
+    <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="107"/>
+      <c r="I38" s="107"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="108"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="107"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="107"/>
+      <c r="L39" s="107"/>
+      <c r="M39" s="108"/>
+    </row>
+    <row r="40" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="108"/>
+    </row>
+    <row r="41" spans="1:13" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="118"/>
+      <c r="D41" s="118"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="108"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="23"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="24" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="19"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="F44" s="33" t="s">
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="F44" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="94"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="23"/>
-      <c r="B45" s="95" t="s">
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="112"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="95"/>
-      <c r="G45" s="95" t="s">
+      <c r="C45" s="113"/>
+      <c r="G45" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="96"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="14"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="114"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="12"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="F47" s="33" t="s">
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="F47" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="94"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="23"/>
-      <c r="B48" s="95" t="s">
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="112"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="95"/>
-      <c r="G48" s="95" t="s">
+      <c r="C48" s="113"/>
+      <c r="G48" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="96"/>
-    </row>
-    <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="105" t="s">
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="114"/>
+    </row>
+    <row r="49" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="105"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="105"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
-      <c r="J49" s="105"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="117"/>
+      <c r="I49" s="117"/>
+      <c r="J49" s="117"/>
+      <c r="K49" s="117"/>
+      <c r="L49" s="117"/>
+      <c r="M49" s="117"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="27"/>
-    </row>
-    <row r="52" spans="1:10" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="28" t="s">
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="30"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="114"/>
-      <c r="B53" s="113"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="92"/>
-      <c r="B55" s="113"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="27"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="109"/>
+      <c r="B53" s="37"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="110"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="110"/>
+      <c r="B55" s="37"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F10:G10"/>
+  <mergeCells count="128">
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
@@ -2498,9 +2649,21 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="G48:M48"/>
+    <mergeCell ref="A49:M49"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G39:M39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="G40:M40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="G41:M41"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="G36:M36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C22:E22"/>
@@ -2509,61 +2672,46 @@
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:J4"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="A49:J49"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G33:M33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="G34:M34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="G35:M35"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G44:M44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G45:M45"/>
     <mergeCell ref="B47:C47"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G47:M47"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="G28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="G29:M29"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G30:M30"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G31:M31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="G32:M32"/>
+    <mergeCell ref="A24:M24"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:J26"/>
+    <mergeCell ref="G25:M26"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G27:M27"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C16:E16"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F8:G8"/>
@@ -2574,6 +2722,15 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:M8"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
@@ -2581,6 +2738,36 @@
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
